--- a/REGULAR/ADELAIDA LUCIANO.xlsx
+++ b/REGULAR/ADELAIDA LUCIANO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED455608-1D00-4281-A03D-0759E412AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="454">
   <si>
     <t>PERIOD</t>
   </si>
@@ -182,15 +175,6 @@
     <t>1992</t>
   </si>
   <si>
-    <t>20,22,21</t>
-  </si>
-  <si>
-    <t>3DAY SICK LEAVE W/PAY</t>
-  </si>
-  <si>
-    <t>10,11,13,14</t>
-  </si>
-  <si>
     <t>OCT,1,4</t>
   </si>
   <si>
@@ -1398,12 +1382,27 @@
   </si>
   <si>
     <t>8/15,17</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>CL(5-0-0)</t>
+  </si>
+  <si>
+    <t>3DAY SICK LEAVE W/PAY 20,22,21</t>
+  </si>
+  <si>
+    <t>6/10,11,13,14</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2266,7 +2265,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2309,7 +2308,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2372,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2432,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2498,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2561,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2659,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2718,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2783,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2826,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,7 +2901,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,7 +3087,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3153,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3211,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3278,7 +3277,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3334,7 +3333,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,7 +3408,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3452,7 +3451,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3517,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3573,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3672,7 +3671,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3734,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,25 +3800,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3831,13 +3830,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3846,14 +3845,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4157,7 +4156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4175,16 +4174,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A529" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A91" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A564" sqref="A564"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4341,7 +4340,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.163000000000181</v>
+        <v>23.413000000000181</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4351,7 +4350,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>208.024</v>
+        <v>209.274</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4403,7 +4402,7 @@
         <v>33270</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -4421,7 +4420,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>47</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4489,7 +4488,7 @@
         <v>33390</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>48</v>
+        <v>453</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -4506,7 +4505,9 @@
       <c r="H16" s="39"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
@@ -4573,7 +4574,7 @@
         <v>33512</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -4593,7 +4594,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4633,9 +4634,7 @@
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="11">
-        <v>82.375</v>
-      </c>
+      <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -4705,7 +4704,7 @@
         <v>33664</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -4851,7 +4850,7 @@
         <v>33878</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -4912,7 +4911,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5117,7 +5116,7 @@
         <v>34243</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -5161,7 +5160,7 @@
         <v>34304</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -5182,7 +5181,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5267,7 +5266,7 @@
         <v>34425</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -5331,7 +5330,7 @@
         <v>34516</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C56" s="13">
         <v>1.25</v>
@@ -5452,7 +5451,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5517,13 +5516,13 @@
         <v>34759</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
       <c r="D65" s="39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
@@ -5535,7 +5534,7 @@
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
       <c r="K65" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -5643,7 +5642,7 @@
         <v>34943</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -5661,7 +5660,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -5709,7 +5708,7 @@
         <v>35034</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -5730,7 +5729,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -5793,7 +5792,7 @@
         <v>35125</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
@@ -5811,7 +5810,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -5841,7 +5840,7 @@
         <v>35186</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -5859,7 +5858,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -5868,7 +5867,7 @@
         <v>35217</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C81" s="13">
         <v>1.25</v>
@@ -5884,7 +5883,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -5914,7 +5913,7 @@
         <v>35278</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -5934,7 +5933,7 @@
         <v>158.375</v>
       </c>
       <c r="K83" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5943,7 +5942,7 @@
         <v>35309</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -5961,7 +5960,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -6033,7 +6032,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6118,7 +6117,7 @@
         <v>35521</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C92" s="13">
         <v>1.25</v>
@@ -6134,7 +6133,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
       <c r="K92" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -6162,7 +6161,7 @@
         <v>35582</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -6180,7 +6179,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -6248,7 +6247,7 @@
         <v>35704</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -6266,7 +6265,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -6294,7 +6293,7 @@
         <v>35765</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -6314,13 +6313,13 @@
         <v>169.375</v>
       </c>
       <c r="K100" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="48">
@@ -6343,7 +6342,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6368,7 +6367,7 @@
         <v>35796</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -6392,7 +6391,7 @@
         <v>35827</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -6436,7 +6435,7 @@
         <v>35886</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C106" s="13">
         <v>1.25</v>
@@ -6454,7 +6453,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
       <c r="K106" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -6462,7 +6461,7 @@
         <v>35916</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -6500,7 +6499,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
       <c r="K108" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -6508,7 +6507,7 @@
         <v>35977</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -6532,7 +6531,7 @@
         <v>36008</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -6596,7 +6595,7 @@
         <v>36100</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -6620,7 +6619,7 @@
         <v>36130</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -6638,13 +6637,13 @@
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
       <c r="K114" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39">
@@ -6667,7 +6666,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6692,7 +6691,7 @@
         <v>36161</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C117" s="13">
         <v>1.25</v>
@@ -6716,7 +6715,7 @@
         <v>36192</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C118" s="13">
         <v>1.25</v>
@@ -6740,7 +6739,7 @@
         <v>36220</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -6758,7 +6757,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -6766,7 +6765,7 @@
         <v>36251</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -6784,7 +6783,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -6792,7 +6791,7 @@
         <v>36281</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C121" s="13">
         <v>1.25</v>
@@ -6816,7 +6815,7 @@
         <v>36312</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C122" s="13">
         <v>1.25</v>
@@ -6840,7 +6839,7 @@
         <v>36342</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -6864,7 +6863,7 @@
         <v>36373</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C124" s="13">
         <v>1.25</v>
@@ -6888,7 +6887,7 @@
         <v>36404</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -6932,7 +6931,7 @@
         <v>36465</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
@@ -6960,7 +6959,7 @@
         <v>36495</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -6978,13 +6977,13 @@
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="39">
@@ -7003,7 +7002,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -7024,7 +7023,7 @@
         <v>36526</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C131" s="13">
         <v>1.25</v>
@@ -7042,13 +7041,13 @@
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39">
@@ -7074,7 +7073,7 @@
         <v>36557</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -7098,7 +7097,7 @@
         <v>36586</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -7116,13 +7115,13 @@
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39">
@@ -7142,7 +7141,7 @@
       </c>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -7150,7 +7149,7 @@
         <v>36617</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C136" s="13">
         <v>1.25</v>
@@ -7174,7 +7173,7 @@
         <v>36647</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -7198,7 +7197,7 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
@@ -7218,13 +7217,13 @@
       </c>
       <c r="J138" s="11"/>
       <c r="K138" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39">
@@ -7246,7 +7245,7 @@
         <v>36678</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C140" s="13">
         <v>1.25</v>
@@ -7290,7 +7289,7 @@
         <v>36739</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -7354,7 +7353,7 @@
         <v>36831</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C145" s="13">
         <v>1.25</v>
@@ -7372,20 +7371,20 @@
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
       <c r="K145" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="39">
         <v>1</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F146" s="20"/>
       <c r="G146" s="13" t="str">
@@ -7402,7 +7401,7 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="39">
@@ -7424,7 +7423,7 @@
         <v>36861</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C148" s="13">
         <v>1.25</v>
@@ -7445,7 +7444,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -7470,7 +7469,7 @@
         <v>36892</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C150" s="13">
         <v>1.25</v>
@@ -7494,7 +7493,7 @@
         <v>36923</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -7512,7 +7511,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -7540,7 +7539,7 @@
         <v>36982</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -7564,7 +7563,7 @@
         <v>37012</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C154" s="13">
         <v>1.25</v>
@@ -7588,7 +7587,7 @@
         <v>37043</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C155" s="13">
         <v>1.25</v>
@@ -7612,7 +7611,7 @@
         <v>37073</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -7636,7 +7635,7 @@
         <v>37104</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C157" s="13">
         <v>1.25</v>
@@ -7660,7 +7659,7 @@
         <v>37135</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -7684,7 +7683,7 @@
         <v>37165</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -7708,7 +7707,7 @@
         <v>37196</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C160" s="13">
         <v>1.25</v>
@@ -7730,13 +7729,13 @@
       </c>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="39">
@@ -7758,7 +7757,7 @@
         <v>261.697</v>
       </c>
       <c r="K161" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -7766,7 +7765,7 @@
         <v>37226</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -7790,7 +7789,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39">
@@ -7813,7 +7812,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -7838,7 +7837,7 @@
         <v>37257</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C165" s="13">
         <v>1.25</v>
@@ -7860,7 +7859,7 @@
         <v>37288</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -7884,7 +7883,7 @@
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39">
@@ -7904,7 +7903,7 @@
       </c>
       <c r="J167" s="11"/>
       <c r="K167" s="49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -7912,7 +7911,7 @@
         <v>37316</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -7936,7 +7935,7 @@
         <v>37347</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -7960,7 +7959,7 @@
         <v>37377</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C170" s="13">
         <v>1.25</v>
@@ -7984,7 +7983,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="39"/>
@@ -8010,7 +8009,7 @@
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C172" s="13"/>
       <c r="D172" s="39"/>
@@ -8032,7 +8031,7 @@
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="39">
@@ -8056,7 +8055,7 @@
         <v>37408</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C174" s="13">
         <v>1.25</v>
@@ -8080,7 +8079,7 @@
         <v>37438</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C175" s="13">
         <v>1.25</v>
@@ -8098,13 +8097,13 @@
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C176" s="13"/>
       <c r="D176" s="39">
@@ -8130,7 +8129,7 @@
         <v>37469</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -8154,7 +8153,7 @@
         <v>37500</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
@@ -8178,7 +8177,7 @@
         <v>37530</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C179" s="13">
         <v>1.25</v>
@@ -8202,7 +8201,7 @@
         <v>37561</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -8226,7 +8225,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39">
@@ -8252,7 +8251,7 @@
         <v>37591</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -8270,13 +8269,13 @@
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
       <c r="K182" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39">
@@ -8300,7 +8299,7 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39">
@@ -8319,7 +8318,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -8344,7 +8343,7 @@
         <v>37622</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -8368,7 +8367,7 @@
         <v>37653</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C187" s="13">
         <v>1.25</v>
@@ -8432,7 +8431,7 @@
         <v>37742</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C190" s="13">
         <v>1.25</v>
@@ -8450,7 +8449,7 @@
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
       <c r="K190" s="49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -8478,7 +8477,7 @@
         <v>37803</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -8496,7 +8495,7 @@
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
       <c r="K192" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -8518,7 +8517,7 @@
       <c r="I193" s="9"/>
       <c r="J193" s="11"/>
       <c r="K193" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -8526,7 +8525,7 @@
         <v>37865</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C194" s="13">
         <v>1.25</v>
@@ -8550,7 +8549,7 @@
         <v>37895</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -8574,7 +8573,7 @@
         <v>37926</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C196" s="13">
         <v>1.25</v>
@@ -8620,7 +8619,7 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="39">
@@ -8643,7 +8642,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -8668,7 +8667,7 @@
         <v>37987</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -8686,13 +8685,13 @@
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
       <c r="K200" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C201" s="13"/>
       <c r="D201" s="39"/>
@@ -8712,13 +8711,13 @@
       </c>
       <c r="J201" s="11"/>
       <c r="K201" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="39">
@@ -8738,7 +8737,7 @@
       </c>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -8746,7 +8745,7 @@
         <v>38018</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -8764,7 +8763,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -8772,7 +8771,7 @@
         <v>38047</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C204" s="13">
         <v>1.25</v>
@@ -8818,7 +8817,7 @@
         <v>38108</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C206" s="13">
         <v>1.25</v>
@@ -8842,7 +8841,7 @@
         <v>38139</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -8860,7 +8859,7 @@
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
       <c r="K207" s="20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -8868,7 +8867,7 @@
         <v>38169</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C208" s="13">
         <v>1.25</v>
@@ -8892,7 +8891,7 @@
         <v>38200</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -8916,7 +8915,7 @@
         <v>38231</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -8940,7 +8939,7 @@
         <v>38261</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C211" s="13">
         <v>1.25</v>
@@ -8964,7 +8963,7 @@
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C212" s="13"/>
       <c r="D212" s="39">
@@ -8990,7 +8989,7 @@
         <v>38292</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C213" s="13">
         <v>1.25</v>
@@ -9014,7 +9013,7 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39">
@@ -9040,7 +9039,7 @@
         <v>38322</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C215" s="13">
         <v>1.25</v>
@@ -9061,7 +9060,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -9082,7 +9081,7 @@
         <v>38353</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -9106,7 +9105,7 @@
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -9133,7 +9132,7 @@
         <v>38384</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -9158,7 +9157,7 @@
         <v>38412</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -9182,7 +9181,7 @@
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39">
@@ -9209,7 +9208,7 @@
         <v>38443</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C222" s="13">
         <v>1.25</v>
@@ -9234,7 +9233,7 @@
         <v>38473</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -9259,7 +9258,7 @@
         <v>38504</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -9284,7 +9283,7 @@
         <v>38534</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C225" s="13">
         <v>1.25</v>
@@ -9302,13 +9301,13 @@
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39"/>
@@ -9328,13 +9327,13 @@
       </c>
       <c r="J226" s="11"/>
       <c r="K226" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C227" s="13"/>
       <c r="D227" s="39">
@@ -9361,7 +9360,7 @@
         <v>38565</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -9383,7 +9382,7 @@
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39"/>
@@ -9409,7 +9408,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39">
@@ -9432,7 +9431,7 @@
         <v>38596</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -9456,7 +9455,7 @@
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39"/>
@@ -9480,7 +9479,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39"/>
@@ -9494,13 +9493,13 @@
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
       <c r="K233" s="49" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C234" s="13"/>
       <c r="D234" s="39"/>
@@ -9522,7 +9521,7 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C235" s="13"/>
       <c r="D235" s="39"/>
@@ -9544,7 +9543,7 @@
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="39">
@@ -9567,7 +9566,7 @@
         <v>38626</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C237" s="13">
         <v>1.25</v>
@@ -9591,7 +9590,7 @@
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39">
@@ -9639,7 +9638,7 @@
         <v>38687</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -9657,12 +9656,12 @@
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -9687,7 +9686,7 @@
         <v>38718</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C242" s="13">
         <v>1.25</v>
@@ -9703,13 +9702,13 @@
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
       <c r="K242" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -9737,7 +9736,7 @@
         <v>38749</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C244" s="13">
         <v>1.25</v>
@@ -9761,7 +9760,7 @@
         <v>38777</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C245" s="13">
         <v>1.25</v>
@@ -9779,13 +9778,13 @@
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C246" s="13"/>
       <c r="D246" s="39">
@@ -9811,7 +9810,7 @@
         <v>38808</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -9833,7 +9832,7 @@
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39">
@@ -9853,7 +9852,7 @@
       </c>
       <c r="J248" s="11"/>
       <c r="K248" s="50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -9861,7 +9860,7 @@
         <v>38838</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -9885,7 +9884,7 @@
         <v>38869</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
@@ -9909,7 +9908,7 @@
         <v>38899</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -9933,7 +9932,7 @@
         <v>38930</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -9957,7 +9956,7 @@
         <v>38961</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C253" s="13">
         <v>1.25</v>
@@ -9981,7 +9980,7 @@
         <v>38991</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C254" s="13">
         <v>1.25</v>
@@ -10005,7 +10004,7 @@
         <v>39022</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
@@ -10029,7 +10028,7 @@
         <v>39052</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -10051,7 +10050,7 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39">
@@ -10074,7 +10073,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -10099,7 +10098,7 @@
         <v>39083</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C259" s="13">
         <v>1.25</v>
@@ -10115,13 +10114,13 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -10149,7 +10148,7 @@
         <v>39114</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C261" s="13">
         <v>1.25</v>
@@ -10173,7 +10172,7 @@
         <v>39142</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -10197,7 +10196,7 @@
         <v>39173</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -10221,7 +10220,7 @@
         <v>39203</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -10245,7 +10244,7 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C265" s="13"/>
       <c r="D265" s="39">
@@ -10271,7 +10270,7 @@
         <v>39234</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -10295,7 +10294,7 @@
         <v>39264</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -10319,7 +10318,7 @@
         <v>39295</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -10343,7 +10342,7 @@
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C269" s="13"/>
       <c r="D269" s="39"/>
@@ -10363,13 +10362,13 @@
       </c>
       <c r="J269" s="11"/>
       <c r="K269" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C270" s="13"/>
       <c r="D270" s="39">
@@ -10395,7 +10394,7 @@
         <v>39326</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -10419,7 +10418,7 @@
         <v>39356</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C272" s="13">
         <v>1.25</v>
@@ -10443,7 +10442,7 @@
         <v>39387</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -10467,7 +10466,7 @@
         <v>39417</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -10487,13 +10486,13 @@
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -10518,7 +10517,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -10543,7 +10542,7 @@
         <v>39448</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C277" s="13">
         <v>1.25</v>
@@ -10565,7 +10564,7 @@
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="39"/>
@@ -10587,7 +10586,7 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39">
@@ -10615,7 +10614,7 @@
         <v>39479</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -10637,7 +10636,7 @@
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39">
@@ -10665,7 +10664,7 @@
         <v>39508</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -10687,7 +10686,7 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39">
@@ -10713,7 +10712,7 @@
         <v>39539</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C284" s="13">
         <v>1.25</v>
@@ -10737,7 +10736,7 @@
         <v>39569</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -10755,13 +10754,13 @@
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="39">
@@ -10803,7 +10802,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="50" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -10831,7 +10830,7 @@
         <v>39630</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -10855,7 +10854,7 @@
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C290" s="13"/>
       <c r="D290" s="39">
@@ -10877,7 +10876,7 @@
       </c>
       <c r="J290" s="11"/>
       <c r="K290" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -10885,7 +10884,7 @@
         <v>39661</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -10909,7 +10908,7 @@
         <v>39692</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C292" s="13">
         <v>1.25</v>
@@ -10927,13 +10926,13 @@
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C293" s="13"/>
       <c r="D293" s="39">
@@ -10959,7 +10958,7 @@
         <v>39722</v>
       </c>
       <c r="B294" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C294" s="13">
         <v>1.25</v>
@@ -10975,13 +10974,13 @@
       <c r="I294" s="9"/>
       <c r="J294" s="11"/>
       <c r="K294" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -11007,7 +11006,7 @@
         <v>39753</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -11025,13 +11024,13 @@
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -11049,7 +11048,7 @@
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -11071,7 +11070,7 @@
         <v>39783</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -11089,13 +11088,13 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39">
@@ -11114,7 +11113,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -11139,7 +11138,7 @@
         <v>39814</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -11155,13 +11154,13 @@
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C303" s="13">
         <v>1.25</v>
@@ -11177,13 +11176,13 @@
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39">
@@ -11205,7 +11204,7 @@
         <v>39845</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -11229,7 +11228,7 @@
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
@@ -11243,13 +11242,13 @@
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C307" s="13"/>
       <c r="D307" s="39"/>
@@ -11263,13 +11262,13 @@
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C308" s="13"/>
       <c r="D308" s="39">
@@ -11291,7 +11290,7 @@
         <v>39873</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C309" s="13">
         <v>1.25</v>
@@ -11315,7 +11314,7 @@
         <v>39904</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -11333,13 +11332,13 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39">
@@ -11357,7 +11356,7 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
@@ -11365,7 +11364,7 @@
         <v>39934</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -11383,13 +11382,13 @@
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39">
@@ -11411,7 +11410,7 @@
         <v>39965</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C314" s="13">
         <v>1.25</v>
@@ -11427,13 +11426,13 @@
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -11455,7 +11454,7 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="39">
@@ -11477,7 +11476,7 @@
         <v>39995</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -11501,7 +11500,7 @@
         <v>40026</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C318" s="13">
         <v>1.25</v>
@@ -11525,7 +11524,7 @@
         <v>40057</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C319" s="13">
         <v>1.25</v>
@@ -11549,7 +11548,7 @@
         <v>40087</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -11575,7 +11574,7 @@
         <v>40118</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C321" s="13">
         <v>1.25</v>
@@ -11599,7 +11598,7 @@
         <v>40148</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
@@ -11617,13 +11616,13 @@
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
       <c r="K322" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39">
@@ -11642,7 +11641,7 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -11667,7 +11666,7 @@
         <v>40179</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -11691,7 +11690,7 @@
         <v>40210</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C326" s="13">
         <v>1.25</v>
@@ -11709,13 +11708,13 @@
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
@@ -11729,13 +11728,13 @@
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39">
@@ -11757,7 +11756,7 @@
         <v>40238</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -11785,7 +11784,7 @@
         <v>40269</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C330" s="13">
         <v>1.25</v>
@@ -11813,7 +11812,7 @@
         <v>40299</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -11833,7 +11832,7 @@
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.3">
@@ -11841,7 +11840,7 @@
         <v>40330</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C332" s="13">
         <v>1.25</v>
@@ -11861,7 +11860,7 @@
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
       <c r="K332" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.3">
@@ -11869,7 +11868,7 @@
         <v>40360</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -11897,7 +11896,7 @@
         <v>40391</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C334" s="13">
         <v>1.25</v>
@@ -11917,7 +11916,7 @@
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.3">
@@ -11925,7 +11924,7 @@
         <v>40422</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -11949,7 +11948,7 @@
         <v>40452</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C336" s="13">
         <v>1.25</v>
@@ -11973,7 +11972,7 @@
         <v>40483</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -11997,7 +11996,7 @@
         <v>40513</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -12019,7 +12018,7 @@
     <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="39">
@@ -12038,7 +12037,7 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="47" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -12059,7 +12058,7 @@
         <v>40544</v>
       </c>
       <c r="B341" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C341" s="13">
         <v>1.25</v>
@@ -12077,13 +12076,13 @@
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C342" s="13">
         <v>1.25</v>
@@ -12101,13 +12100,13 @@
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C343" s="13">
         <v>1.25</v>
@@ -12123,13 +12122,13 @@
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -12197,7 +12196,7 @@
         <v>40634</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -12221,7 +12220,7 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -12245,7 +12244,7 @@
         <v>40664</v>
       </c>
       <c r="B349" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C349" s="13">
         <v>1.25</v>
@@ -12263,13 +12262,13 @@
       <c r="I349" s="9"/>
       <c r="J349" s="11"/>
       <c r="K349" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39"/>
@@ -12285,13 +12284,13 @@
       <c r="I350" s="9"/>
       <c r="J350" s="11"/>
       <c r="K350" s="20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39">
@@ -12307,7 +12306,7 @@
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
       <c r="K351" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.3">
@@ -12315,7 +12314,7 @@
         <v>40695</v>
       </c>
       <c r="B352" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C352" s="13">
         <v>1.25</v>
@@ -12333,13 +12332,13 @@
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
       <c r="K352" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -12355,13 +12354,13 @@
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -12375,13 +12374,13 @@
       <c r="I354" s="9"/>
       <c r="J354" s="11"/>
       <c r="K354" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39">
@@ -12407,7 +12406,7 @@
         <v>40725</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -12431,7 +12430,7 @@
         <v>40756</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -12455,7 +12454,7 @@
         <v>40787</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C358" s="13">
         <v>1.25</v>
@@ -12479,7 +12478,7 @@
         <v>40817</v>
       </c>
       <c r="B359" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C359" s="13">
         <v>1.25</v>
@@ -12507,7 +12506,7 @@
         <v>40848</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -12529,7 +12528,7 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39">
@@ -12551,7 +12550,7 @@
         <v>40878</v>
       </c>
       <c r="B362" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C362" s="13">
         <v>1.25</v>
@@ -12569,13 +12568,13 @@
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
       <c r="K362" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39">
@@ -12598,7 +12597,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -12619,7 +12618,7 @@
         <v>40909</v>
       </c>
       <c r="B365" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C365" s="13">
         <v>1.25</v>
@@ -12637,13 +12636,13 @@
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
       <c r="K365" s="20" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C366" s="13"/>
       <c r="D366" s="39">
@@ -12665,7 +12664,7 @@
         <v>40940</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C367" s="13">
         <v>1.25</v>
@@ -12687,7 +12686,7 @@
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C368" s="13"/>
       <c r="D368" s="39"/>
@@ -12701,13 +12700,13 @@
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
       <c r="K368" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
@@ -12721,13 +12720,13 @@
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C370" s="13"/>
       <c r="D370" s="39"/>
@@ -12747,7 +12746,7 @@
         <v>40969</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C371" s="13">
         <v>1.25</v>
@@ -12767,7 +12766,7 @@
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -12775,7 +12774,7 @@
         <v>41000</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C372" s="13">
         <v>1.25</v>
@@ -12799,7 +12798,7 @@
         <v>41030</v>
       </c>
       <c r="B373" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C373" s="13">
         <v>1.25</v>
@@ -12823,7 +12822,7 @@
         <v>41061</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -12841,13 +12840,13 @@
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="39">
@@ -12869,7 +12868,7 @@
         <v>41091</v>
       </c>
       <c r="B376" s="20" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C376" s="13">
         <v>1.25</v>
@@ -12897,7 +12896,7 @@
         <v>41122</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -12927,7 +12926,7 @@
         <v>41153</v>
       </c>
       <c r="B378" s="20" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C378" s="13">
         <v>1.25</v>
@@ -12957,7 +12956,7 @@
         <v>41183</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -12981,7 +12980,7 @@
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C380" s="13"/>
       <c r="D380" s="39">
@@ -13005,7 +13004,7 @@
         <v>41214</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C381" s="13">
         <v>1.25</v>
@@ -13029,7 +13028,7 @@
         <v>41244</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
@@ -13045,7 +13044,7 @@
       <c r="I382" s="9"/>
       <c r="J382" s="11"/>
       <c r="K382" s="20" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
@@ -13067,13 +13066,13 @@
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39">
@@ -13092,7 +13091,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="47" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -13117,7 +13116,7 @@
         <v>41275</v>
       </c>
       <c r="B386" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C386" s="13">
         <v>1.25</v>
@@ -13133,13 +13132,13 @@
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
       <c r="K386" s="20" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C387" s="13"/>
       <c r="D387" s="39">
@@ -13161,7 +13160,7 @@
         <v>41306</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -13185,7 +13184,7 @@
         <v>41334</v>
       </c>
       <c r="B389" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C389" s="13">
         <v>1.25</v>
@@ -13209,7 +13208,7 @@
         <v>41365</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -13227,13 +13226,13 @@
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39">
@@ -13251,7 +13250,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.3">
@@ -13259,7 +13258,7 @@
         <v>41395</v>
       </c>
       <c r="B392" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C392" s="13">
         <v>1.25</v>
@@ -13279,7 +13278,7 @@
       <c r="I392" s="9"/>
       <c r="J392" s="11"/>
       <c r="K392" s="20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.3">
@@ -13287,7 +13286,7 @@
         <v>41426</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -13311,7 +13310,7 @@
     <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39">
@@ -13335,7 +13334,7 @@
         <v>41456</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -13363,7 +13362,7 @@
         <v>41487</v>
       </c>
       <c r="B396" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C396" s="13">
         <v>1.25</v>
@@ -13387,7 +13386,7 @@
         <v>41518</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -13413,7 +13412,7 @@
         <v>41548</v>
       </c>
       <c r="B398" s="20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C398" s="13">
         <v>1.25</v>
@@ -13441,7 +13440,7 @@
         <v>41579</v>
       </c>
       <c r="B399" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C399" s="13">
         <v>1.25</v>
@@ -13467,7 +13466,7 @@
         <v>41609</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -13485,13 +13484,13 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39">
@@ -13499,7 +13498,7 @@
       </c>
       <c r="E401" s="9"/>
       <c r="F401" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G401" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -13512,7 +13511,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="47" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -13537,7 +13536,7 @@
         <v>41640</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -13561,7 +13560,7 @@
     <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39">
@@ -13583,7 +13582,7 @@
         <v>41671</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -13607,7 +13606,7 @@
         <v>41699</v>
       </c>
       <c r="B406" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C406" s="13">
         <v>1.25</v>
@@ -13633,7 +13632,7 @@
         <v>41730</v>
       </c>
       <c r="B407" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C407" s="13">
         <v>1.25</v>
@@ -13649,13 +13648,13 @@
       <c r="I407" s="9"/>
       <c r="J407" s="11"/>
       <c r="K407" s="20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39"/>
@@ -13671,13 +13670,13 @@
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C409" s="13"/>
       <c r="D409" s="39"/>
@@ -13693,13 +13692,13 @@
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39">
@@ -13747,7 +13746,7 @@
         <v>41760</v>
       </c>
       <c r="B412" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
@@ -13763,13 +13762,13 @@
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
       <c r="K412" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C413" s="13"/>
       <c r="D413" s="39">
@@ -13795,7 +13794,7 @@
         <v>41791</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C414" s="13">
         <v>1.25</v>
@@ -13821,7 +13820,7 @@
         <v>41821</v>
       </c>
       <c r="B415" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C415" s="13">
         <v>1.25</v>
@@ -13839,13 +13838,13 @@
       <c r="I415" s="9"/>
       <c r="J415" s="11"/>
       <c r="K415" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39">
@@ -13867,7 +13866,7 @@
         <v>41852</v>
       </c>
       <c r="B417" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C417" s="13">
         <v>1.25</v>
@@ -13891,7 +13890,7 @@
     <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C418" s="13"/>
       <c r="D418" s="39">
@@ -13913,7 +13912,7 @@
         <v>41883</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
@@ -13931,13 +13930,13 @@
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
       <c r="K419" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -13959,7 +13958,7 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -13973,13 +13972,13 @@
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39">
@@ -14001,7 +14000,7 @@
         <v>41913</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C423" s="13">
         <v>1.25</v>
@@ -14019,13 +14018,13 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39">
@@ -14047,7 +14046,7 @@
         <v>41944</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C425" s="13">
         <v>1.25</v>
@@ -14065,13 +14064,13 @@
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
       <c r="K425" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -14087,13 +14086,13 @@
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
       <c r="K426" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -14115,7 +14114,7 @@
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C428" s="13"/>
       <c r="D428" s="39">
@@ -14137,7 +14136,7 @@
         <v>41974</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C429" s="13">
         <v>1.25</v>
@@ -14158,7 +14157,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="47" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -14183,7 +14182,7 @@
         <v>42005</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C431" s="13">
         <v>1.25</v>
@@ -14209,7 +14208,7 @@
         <v>42036</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C432" s="13">
         <v>1.25</v>
@@ -14235,7 +14234,7 @@
         <v>42064</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C433" s="13">
         <v>1.25</v>
@@ -14261,7 +14260,7 @@
         <v>42095</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -14285,7 +14284,7 @@
         <v>42125</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -14311,7 +14310,7 @@
         <v>42156</v>
       </c>
       <c r="B436" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C436" s="13">
         <v>1.25</v>
@@ -14337,7 +14336,7 @@
         <v>42186</v>
       </c>
       <c r="B437" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C437" s="13">
         <v>1.25</v>
@@ -14359,7 +14358,7 @@
     <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C438" s="13"/>
       <c r="D438" s="39">
@@ -14375,7 +14374,7 @@
       <c r="I438" s="9"/>
       <c r="J438" s="11"/>
       <c r="K438" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.3">
@@ -14383,7 +14382,7 @@
         <v>42217</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C439" s="13">
         <v>1.25</v>
@@ -14399,13 +14398,13 @@
       <c r="I439" s="9"/>
       <c r="J439" s="11"/>
       <c r="K439" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C440" s="13"/>
       <c r="D440" s="39">
@@ -14427,7 +14426,7 @@
         <v>42248</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
@@ -14451,7 +14450,7 @@
         <v>42278</v>
       </c>
       <c r="B442" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C442" s="13">
         <v>1.25</v>
@@ -14473,7 +14472,7 @@
     <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C443" s="13"/>
       <c r="D443" s="39">
@@ -14491,7 +14490,7 @@
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
       <c r="K443" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.3">
@@ -14499,7 +14498,7 @@
         <v>42309</v>
       </c>
       <c r="B444" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C444" s="13">
         <v>1.25</v>
@@ -14517,13 +14516,13 @@
       <c r="I444" s="9"/>
       <c r="J444" s="11"/>
       <c r="K444" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C445" s="13"/>
       <c r="D445" s="39">
@@ -14539,7 +14538,7 @@
       <c r="I445" s="9"/>
       <c r="J445" s="11"/>
       <c r="K445" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.3">
@@ -14547,7 +14546,7 @@
         <v>42339</v>
       </c>
       <c r="B446" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C446" s="13">
         <v>1.25</v>
@@ -14567,7 +14566,7 @@
       <c r="I446" s="9"/>
       <c r="J446" s="11"/>
       <c r="K446" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.3">
@@ -14587,12 +14586,12 @@
       <c r="I447" s="9"/>
       <c r="J447" s="11"/>
       <c r="K447" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="47" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -14753,7 +14752,7 @@
         <v>42583</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C456" s="13">
         <v>1.25</v>
@@ -14777,7 +14776,7 @@
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C457" s="13"/>
       <c r="D457" s="39"/>
@@ -14861,7 +14860,7 @@
         <v>42705</v>
       </c>
       <c r="B461" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C461" s="13">
         <v>1.25</v>
@@ -14877,7 +14876,7 @@
       <c r="I461" s="9"/>
       <c r="J461" s="11"/>
       <c r="K461" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
@@ -14902,7 +14901,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="47" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -14927,7 +14926,7 @@
         <v>42736</v>
       </c>
       <c r="B464" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C464" s="13">
         <v>1.25</v>
@@ -14943,13 +14942,13 @@
       <c r="I464" s="9"/>
       <c r="J464" s="11"/>
       <c r="K464" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C465" s="13"/>
       <c r="D465" s="39">
@@ -14965,13 +14964,13 @@
       <c r="I465" s="9"/>
       <c r="J465" s="11"/>
       <c r="K465" s="20" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C466" s="13"/>
       <c r="D466" s="39"/>
@@ -14987,13 +14986,13 @@
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
       <c r="K466" s="20" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C467" s="13"/>
       <c r="D467" s="39"/>
@@ -15009,7 +15008,7 @@
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
       <c r="K467" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
@@ -15037,7 +15036,7 @@
         <v>42795</v>
       </c>
       <c r="B469" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C469" s="13">
         <v>1.25</v>
@@ -15061,7 +15060,7 @@
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C470" s="13"/>
       <c r="D470" s="39">
@@ -15125,7 +15124,7 @@
         <v>42887</v>
       </c>
       <c r="B473" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C473" s="13">
         <v>1.25</v>
@@ -15149,7 +15148,7 @@
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39"/>
@@ -15213,7 +15212,7 @@
         <v>42979</v>
       </c>
       <c r="B477" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C477" s="13">
         <v>1.25</v>
@@ -15259,7 +15258,7 @@
         <v>43040</v>
       </c>
       <c r="B479" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C479" s="13">
         <v>1.25</v>
@@ -15297,7 +15296,7 @@
       <c r="I480" s="9"/>
       <c r="J480" s="11"/>
       <c r="K480" s="20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
@@ -15305,7 +15304,7 @@
         <v>43070</v>
       </c>
       <c r="B481" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C481" s="13">
         <v>1.25</v>
@@ -15323,12 +15322,12 @@
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
       <c r="K481" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="47" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -15373,7 +15372,7 @@
         <v>43132</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -15391,13 +15390,13 @@
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="50" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
@@ -15413,13 +15412,13 @@
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
       <c r="K485" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
@@ -15435,7 +15434,7 @@
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
       <c r="K486" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
@@ -15443,7 +15442,7 @@
         <v>43160</v>
       </c>
       <c r="B487" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C487" s="13">
         <v>1.25</v>
@@ -15459,7 +15458,7 @@
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
       <c r="K487" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
@@ -15487,7 +15486,7 @@
         <v>43221</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C489" s="13">
         <v>1.25</v>
@@ -15503,13 +15502,13 @@
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
       <c r="K489" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -15531,7 +15530,7 @@
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39">
@@ -15553,7 +15552,7 @@
         <v>43252</v>
       </c>
       <c r="B492" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C492" s="13">
         <v>1.25</v>
@@ -15571,13 +15570,13 @@
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C493" s="13"/>
       <c r="D493" s="39">
@@ -15599,7 +15598,7 @@
         <v>43282</v>
       </c>
       <c r="B494" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C494" s="13">
         <v>1.25</v>
@@ -15623,7 +15622,7 @@
         <v>43313</v>
       </c>
       <c r="B495" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C495" s="13">
         <v>1.25</v>
@@ -15647,7 +15646,7 @@
         <v>43344</v>
       </c>
       <c r="B496" s="20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C496" s="13">
         <v>1.25</v>
@@ -15671,7 +15670,7 @@
         <v>43374</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C497" s="13">
         <v>1.25</v>
@@ -15689,13 +15688,13 @@
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
       <c r="K497" s="20" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C498" s="13"/>
       <c r="D498" s="39"/>
@@ -15711,13 +15710,13 @@
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
       <c r="K498" s="20" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C499" s="13"/>
       <c r="D499" s="39">
@@ -15739,7 +15738,7 @@
         <v>43405</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C500" s="13">
         <v>1.25</v>
@@ -15763,7 +15762,7 @@
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C501" s="13"/>
       <c r="D501" s="39">
@@ -15785,7 +15784,7 @@
         <v>43435</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C502" s="13">
         <v>1.25</v>
@@ -15806,7 +15805,7 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="47" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -15851,7 +15850,7 @@
         <v>43497</v>
       </c>
       <c r="B505" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C505" s="13">
         <v>1.25</v>
@@ -15869,7 +15868,7 @@
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
       <c r="K505" s="20" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
@@ -15897,7 +15896,7 @@
         <v>43556</v>
       </c>
       <c r="B507" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C507" s="13">
         <v>1.25</v>
@@ -15923,7 +15922,7 @@
         <v>43586</v>
       </c>
       <c r="B508" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C508" s="13">
         <v>1.25</v>
@@ -15941,7 +15940,7 @@
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="20" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
@@ -15949,7 +15948,7 @@
         <v>43617</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C509" s="13">
         <v>1.25</v>
@@ -15975,7 +15974,7 @@
         <v>43647</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C510" s="13">
         <v>1.25</v>
@@ -16001,7 +16000,7 @@
         <v>43678</v>
       </c>
       <c r="B511" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C511" s="13">
         <v>1.25</v>
@@ -16025,7 +16024,7 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
@@ -16047,7 +16046,7 @@
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C513" s="13"/>
       <c r="D513" s="39"/>
@@ -16071,7 +16070,7 @@
         <v>43709</v>
       </c>
       <c r="B514" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C514" s="13">
         <v>1.25</v>
@@ -16089,13 +16088,13 @@
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C515" s="13"/>
       <c r="D515" s="39"/>
@@ -16111,13 +16110,13 @@
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C516" s="13"/>
       <c r="D516" s="39">
@@ -16133,13 +16132,13 @@
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
       <c r="K516" s="20" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C517" s="13"/>
       <c r="D517" s="39"/>
@@ -16153,7 +16152,7 @@
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
@@ -16161,7 +16160,7 @@
         <v>43739</v>
       </c>
       <c r="B518" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C518" s="13">
         <v>1.25</v>
@@ -16179,13 +16178,13 @@
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39"/>
@@ -16199,7 +16198,7 @@
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
       <c r="K519" s="20" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
@@ -16207,7 +16206,7 @@
         <v>43770</v>
       </c>
       <c r="B520" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C520" s="13">
         <v>1.25</v>
@@ -16231,7 +16230,7 @@
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
@@ -16247,7 +16246,7 @@
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
       <c r="K521" s="20" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
@@ -16255,7 +16254,7 @@
         <v>43800</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C522" s="13">
         <v>1.25</v>
@@ -16273,13 +16272,13 @@
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
       <c r="K522" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
@@ -16293,12 +16292,12 @@
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
       <c r="K523" s="20" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="47" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -16323,7 +16322,7 @@
         <v>43831</v>
       </c>
       <c r="B525" s="20" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C525" s="13">
         <v>1.25</v>
@@ -16339,7 +16338,7 @@
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
       <c r="K525" s="20" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
@@ -16547,7 +16546,7 @@
         <v>44166</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C536" s="13">
         <v>1.25</v>
@@ -16565,12 +16564,12 @@
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="20" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="47" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -16795,7 +16794,7 @@
         <v>44501</v>
       </c>
       <c r="B548" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C548" s="13">
         <v>1.25</v>
@@ -16811,13 +16810,13 @@
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
       <c r="K548" s="20" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39">
@@ -16833,7 +16832,7 @@
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
       <c r="K549" s="20" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
@@ -16858,7 +16857,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="47" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16919,7 +16918,7 @@
         <v>44621</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C554" s="13">
         <v>1.25</v>
@@ -16937,7 +16936,7 @@
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
       <c r="K554" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
@@ -16985,7 +16984,7 @@
         <v>44713</v>
       </c>
       <c r="B557" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C557" s="13">
         <v>1.25</v>
@@ -17007,7 +17006,7 @@
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C558" s="13"/>
       <c r="D558" s="39"/>
@@ -17021,13 +17020,13 @@
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
@@ -17049,7 +17048,7 @@
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -17093,7 +17092,7 @@
         <v>44774</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
@@ -17111,7 +17110,7 @@
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
@@ -17195,7 +17194,9 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567" s="40"/>
+      <c r="A567" s="47" t="s">
+        <v>449</v>
+      </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
       <c r="D567" s="39"/>
@@ -17211,15 +17212,19 @@
       <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568" s="40"/>
+      <c r="A568" s="40">
+        <v>44927</v>
+      </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13"/>
+      <c r="C568" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G568" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -17305,10 +17310,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17331,7 +17336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>

--- a/REGULAR/ADELAIDA LUCIANO.xlsx
+++ b/REGULAR/ADELAIDA LUCIANO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED455608-1D00-4281-A03D-0759E412AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709A5344-958D-4105-8163-E73A1FD7BC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="457">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1397,6 +1397,15 @@
   </si>
   <si>
     <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/12,23,27-29</t>
+  </si>
+  <si>
+    <t>PARENTAL 1/6/23</t>
+  </si>
+  <si>
+    <t>7/5,11</t>
   </si>
 </sst>
 </file>
@@ -3800,7 +3809,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K572" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K574" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4178,12 +4187,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K572"/>
+  <dimension ref="A2:K574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A91" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+      <pane ySplit="3576" topLeftCell="A553"/>
+      <selection activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="K567" sqref="K567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4340,7 +4349,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.413000000000181</v>
+        <v>16.413000000000181</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4350,7 +4359,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>209.274</v>
+        <v>207.274</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17048,7 +17057,7 @@
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
@@ -17058,66 +17067,68 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H560" s="39">
-        <v>1</v>
-      </c>
+      <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
       <c r="K560" s="49">
-        <v>45139</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A561" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B561" s="20"/>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A561" s="40"/>
+      <c r="B561" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H561" s="39"/>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H561" s="39">
+        <v>1</v>
+      </c>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
+      <c r="K561" s="49">
+        <v>45139</v>
+      </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
-      <c r="D562" s="39"/>
+      <c r="D562" s="39">
+        <v>2</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H562" s="39">
-        <v>3</v>
-      </c>
+      <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
       <c r="K562" s="20" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B563" s="20"/>
+        <v>44774</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="C563" s="13">
         <v>1.25</v>
       </c>
@@ -17128,14 +17139,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H563" s="39"/>
+      <c r="H563" s="39">
+        <v>3</v>
+      </c>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="20" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13">
@@ -17155,9 +17170,11 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B565" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>108</v>
+      </c>
       <c r="C565" s="13">
         <v>1.25</v>
       </c>
@@ -17168,43 +17185,51 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H565" s="39"/>
+      <c r="H565" s="39">
+        <v>1</v>
+      </c>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="50">
+        <v>44862</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A566" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B566" s="20"/>
-      <c r="C566" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C566" s="13"/>
       <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H566" s="39"/>
+      <c r="G566" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H566" s="39">
+        <v>1</v>
+      </c>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20"/>
+      <c r="K566" s="50">
+        <v>44841</v>
+      </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567" s="47" t="s">
-        <v>449</v>
+      <c r="A567" s="40">
+        <v>44866</v>
       </c>
       <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
@@ -17213,13 +17238,17 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B568" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B568" s="20" t="s">
+        <v>440</v>
+      </c>
       <c r="C568" s="13">
         <v>1.25</v>
       </c>
-      <c r="D568" s="39"/>
+      <c r="D568" s="39">
+        <v>5</v>
+      </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
       <c r="G568" s="13">
@@ -17229,10 +17258,14 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="20" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569" s="40"/>
+      <c r="A569" s="47" t="s">
+        <v>449</v>
+      </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
@@ -17248,20 +17281,28 @@
       <c r="K569" s="20"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A570" s="40"/>
-      <c r="B570" s="20"/>
-      <c r="C570" s="13"/>
+      <c r="A570" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B570" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="20" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
@@ -17281,19 +17322,51 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
-      <c r="B572" s="15"/>
-      <c r="C572" s="41"/>
-      <c r="D572" s="42"/>
+      <c r="B572" s="20"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="39"/>
       <c r="E572" s="9"/>
-      <c r="F572" s="15"/>
-      <c r="G572" s="41" t="str">
+      <c r="F572" s="20"/>
+      <c r="G572" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H572" s="42"/>
+      <c r="H572" s="39"/>
       <c r="I572" s="9"/>
-      <c r="J572" s="12"/>
-      <c r="K572" s="15"/>
+      <c r="J572" s="11"/>
+      <c r="K572" s="20"/>
+    </row>
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A573" s="40"/>
+      <c r="B573" s="20"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39"/>
+      <c r="E573" s="9"/>
+      <c r="F573" s="20"/>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H573" s="39"/>
+      <c r="I573" s="9"/>
+      <c r="J573" s="11"/>
+      <c r="K573" s="20"/>
+    </row>
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A574" s="40"/>
+      <c r="B574" s="15"/>
+      <c r="C574" s="41"/>
+      <c r="D574" s="42"/>
+      <c r="E574" s="9"/>
+      <c r="F574" s="15"/>
+      <c r="G574" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H574" s="42"/>
+      <c r="I574" s="9"/>
+      <c r="J574" s="12"/>
+      <c r="K574" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
